--- a/docs/shr-core-CodedNonLaboratoryObservation.xlsx
+++ b/docs/shr-core-CodedNonLaboratoryObservation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="390">
   <si>
     <t>Path</t>
   </si>
@@ -775,7 +775,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
@@ -797,64 +797,24 @@
     <t>open</t>
   </si>
   <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t>locationqualifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LocationQualifier-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Anatomical location or specimen further detailing the side(s) of interest.</t>
-  </si>
-  <si>
-    <t>anatomicaldirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AnatomicalDirection-extension]]} {[]}
+    <t>Additional information, such as laterality or direction, that helps define the body location.</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Landmark-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Anatomical location or specimen further detailing directionality.</t>
-  </si>
-  <si>
-    <t>clockdirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ClockDirection-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A direction indicated by an angle relative to 12 o'clock.</t>
-  </si>
-  <si>
-    <t>commentordescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-CommentOrDescription-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
-  </si>
-  <si>
-    <t>attachment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Attachment-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A file that contains audio, video, image, or similar content.</t>
-  </si>
-  <si>
-    <t>distancefromlandmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DistanceFromLandmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>How far the anatomical location of interest is from the given landmark</t>
+    <t>An anatomical landmark that helps determine a body location.</t>
   </si>
   <si>
     <t>Observation.bodySite.coding</t>
@@ -1416,7 +1376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM75"/>
+  <dimension ref="A1:AM71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1426,7 +1386,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.58203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1449,7 +1409,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.3515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -4926,7 +4886,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -5032,7 +4992,7 @@
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5125,11 +5085,9 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B36" t="s" s="2">
         <v>256</v>
       </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5138,7 +5096,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -5147,17 +5105,23 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K36" s="2"/>
       <c r="L36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="M36" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5204,15 +5168,11 @@
       <c r="AD36" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE36" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5220,10 +5180,10 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5231,11 +5191,9 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5253,17 +5211,23 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="K37" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="L37" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5310,15 +5274,11 @@
       <c r="AD37" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE37" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="AE37" s="2"/>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG37" s="2"/>
       <c r="AH37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5326,10 +5286,10 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>42</v>
+        <v>269</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5337,11 +5297,9 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5350,7 +5308,7 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5362,14 +5320,20 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="K38" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="L38" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5393,13 +5357,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5416,15 +5380,11 @@
       <c r="AD38" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE38" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="AE38" s="2"/>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG38" s="2"/>
       <c r="AH38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5432,10 +5392,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5443,11 +5403,9 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5456,7 +5414,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5468,13 +5426,17 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="K39" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="L39" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5523,13 +5485,13 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>42</v>
@@ -5538,10 +5500,10 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5549,7 +5511,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5560,7 +5522,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5569,23 +5531,21 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>287</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5644,10 +5604,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5655,7 +5615,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5666,7 +5626,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5675,22 +5635,22 @@
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5738,22 +5698,26 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" s="2"/>
+      <c r="AE41" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" s="2"/>
+      <c r="AG41" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5761,7 +5725,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5784,20 +5748,16 @@
         <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>283</v>
+        <v>62</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5821,13 +5781,13 @@
         <v>42</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
@@ -5856,10 +5816,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>289</v>
+        <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>290</v>
+        <v>64</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -5867,18 +5827,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -5890,16 +5850,16 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>292</v>
+        <v>67</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>293</v>
+        <v>68</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>294</v>
+        <v>69</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5948,15 +5908,11 @@
       <c r="AD43" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE43" t="s" s="2">
-        <v>291</v>
-      </c>
+      <c r="AE43" s="2"/>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG43" s="2"/>
       <c r="AH43" t="s" s="2">
         <v>42</v>
       </c>
@@ -5964,10 +5920,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>296</v>
+        <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -5975,39 +5931,39 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>300</v>
+        <v>129</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>302</v>
+        <v>70</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6068,10 +6024,10 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>304</v>
+        <v>125</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6079,7 +6035,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6090,7 +6046,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6102,20 +6058,16 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N45" t="s" s="2">
         <v>310</v>
       </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6162,20 +6114,16 @@
       <c r="AD45" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE45" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>312</v>
@@ -6212,13 +6160,13 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>53</v>
+        <v>308</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>62</v>
+        <v>315</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6274,16 +6222,16 @@
       </c>
       <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>64</v>
+        <v>317</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6291,18 +6239,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
@@ -6314,18 +6262,20 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6349,13 +6299,13 @@
         <v>42</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>42</v>
+        <v>324</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6384,10 +6334,10 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6395,41 +6345,41 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>67</v>
+        <v>327</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>328</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6491,7 +6441,7 @@
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>125</v>
+        <v>331</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6499,7 +6449,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6522,13 +6472,13 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6584,16 +6534,16 @@
       </c>
       <c r="AG49" s="2"/>
       <c r="AH49" t="s" s="2">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6601,7 +6551,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6621,19 +6571,23 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6680,22 +6634,26 @@
       <c r="AD50" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH50" t="s" s="2">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6703,7 +6661,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6726,20 +6684,16 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>331</v>
+        <v>62</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6763,13 +6717,13 @@
         <v>42</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>335</v>
+        <v>42</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>336</v>
+        <v>42</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>42</v>
@@ -6798,10 +6752,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>337</v>
+        <v>42</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>229</v>
+        <v>64</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6809,18 +6763,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -6832,18 +6786,18 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>339</v>
+        <v>67</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>340</v>
+        <v>68</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>42</v>
       </c>
@@ -6905,7 +6859,7 @@
         <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>343</v>
+        <v>64</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -6913,38 +6867,40 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>231</v>
+        <v>67</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>345</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7004,10 +6960,10 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>347</v>
+        <v>125</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7015,7 +6971,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7035,29 +6991,29 @@
         <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>306</v>
+        <v>104</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>42</v>
@@ -7075,13 +7031,13 @@
         <v>42</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7098,15 +7054,11 @@
       <c r="AD54" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE54" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="AE54" s="2"/>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG54" s="2"/>
       <c r="AH54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7114,7 +7066,7 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>353</v>
+        <v>125</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>354</v>
@@ -7133,7 +7085,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>51</v>
@@ -7148,13 +7100,13 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>53</v>
+        <v>356</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>62</v>
+        <v>357</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>63</v>
+        <v>358</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7219,7 +7171,7 @@
         <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>64</v>
+        <v>359</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7227,11 +7179,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7247,21 +7199,23 @@
         <v>42</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>67</v>
+        <v>294</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>68</v>
+        <v>361</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>69</v>
+        <v>362</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7320,10 +7274,10 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>42</v>
+        <v>364</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>64</v>
+        <v>365</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7331,40 +7285,38 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -7427,7 +7379,7 @@
         <v>42</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7435,18 +7387,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
@@ -7458,26 +7410,24 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>359</v>
+        <v>68</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>360</v>
+        <v>69</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>42</v>
@@ -7495,13 +7445,13 @@
         <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>365</v>
+        <v>42</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7530,10 +7480,10 @@
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>366</v>
+        <v>64</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7541,38 +7491,40 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>368</v>
+        <v>67</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>369</v>
+        <v>129</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -7635,7 +7587,7 @@
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>371</v>
+        <v>125</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7643,7 +7595,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7651,7 +7603,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>51</v>
@@ -7666,19 +7618,17 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>306</v>
+        <v>148</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>375</v>
+        <v>159</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -7703,13 +7653,13 @@
         <v>42</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>42</v>
@@ -7726,34 +7676,30 @@
       <c r="AD60" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE60" t="s" s="2">
+      <c r="AE60" s="2"/>
+      <c r="AF60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG60" s="2"/>
+      <c r="AH60" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AF60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AI60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>376</v>
+        <v>162</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>377</v>
+        <v>163</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>42</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7773,19 +7719,23 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>53</v>
+        <v>374</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>62</v>
+        <v>375</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
       </c>
@@ -7844,10 +7794,10 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -7855,18 +7805,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
@@ -7878,18 +7828,20 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>68</v>
+        <v>378</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
       </c>
@@ -7913,13 +7865,11 @@
         <v>42</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X62" s="2"/>
       <c r="Y62" t="s" s="2">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>42</v>
@@ -7942,16 +7892,16 @@
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -7963,7 +7913,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -7976,24 +7926,26 @@
         <v>42</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>67</v>
+        <v>294</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>129</v>
+        <v>381</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8052,10 +8004,10 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>125</v>
+        <v>301</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8063,7 +8015,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8071,7 +8023,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>51</v>
@@ -8083,21 +8035,19 @@
         <v>42</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>382</v>
+        <v>62</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>383</v>
+        <v>63</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8121,13 +8071,13 @@
         <v>42</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
@@ -8150,35 +8100,35 @@
       </c>
       <c r="AG64" s="2"/>
       <c r="AH64" t="s" s="2">
-        <v>384</v>
+        <v>42</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>42</v>
@@ -8187,23 +8137,21 @@
         <v>42</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>386</v>
+        <v>67</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>387</v>
+        <v>68</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
       </c>
@@ -8262,10 +8210,10 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8273,43 +8221,41 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>390</v>
+        <v>129</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>215</v>
+        <v>306</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8333,11 +8279,13 @@
         <v>42</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>42</v>
@@ -8360,16 +8308,16 @@
       </c>
       <c r="AG66" s="2"/>
       <c r="AH66" t="s" s="2">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8377,7 +8325,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8388,7 +8336,7 @@
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
@@ -8400,20 +8348,16 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>393</v>
+        <v>309</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N67" t="s" s="2">
         <v>310</v>
       </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8466,7 +8410,7 @@
       </c>
       <c r="AG67" s="2"/>
       <c r="AH67" t="s" s="2">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>42</v>
@@ -8483,7 +8427,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8506,13 +8450,13 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>53</v>
+        <v>308</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>62</v>
+        <v>315</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8568,16 +8512,16 @@
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>64</v>
+        <v>317</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8585,18 +8529,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
@@ -8608,18 +8552,20 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
       </c>
@@ -8643,13 +8589,13 @@
         <v>42</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>42</v>
+        <v>324</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>42</v>
@@ -8678,10 +8624,10 @@
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8689,41 +8635,41 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>67</v>
+        <v>327</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>129</v>
+        <v>328</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
@@ -8785,7 +8731,7 @@
         <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>125</v>
+        <v>331</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -8793,7 +8739,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8816,13 +8762,13 @@
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8878,437 +8824,23 @@
       </c>
       <c r="AG71" s="2"/>
       <c r="AH71" t="s" s="2">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE72" s="2"/>
-      <c r="AF72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG72" s="2"/>
-      <c r="AH72" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE73" s="2"/>
-      <c r="AF73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG73" s="2"/>
-      <c r="AH73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE74" s="2"/>
-      <c r="AF74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG74" s="2"/>
-      <c r="AH74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE75" s="2"/>
-      <c r="AF75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG75" s="2"/>
-      <c r="AH75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AL75" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL75">
+  <autoFilter ref="A1:AL71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9318,7 +8850,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
